--- a/model_exports/labels/2.0_True_False_2_1.xlsx
+++ b/model_exports/labels/2.0_True_False_2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,59 +648,59 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,50 +713,50 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,20 +791,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,33 +817,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,33 +856,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,59 +908,59 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,20 +973,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,33 +1012,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,46 +1064,46 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,24 +1116,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,20 +1259,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,24 +1285,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,72 +1337,72 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,50 +1415,50 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,20 +1480,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,24 +1506,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1545,20 +1545,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,37 +1571,37 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,24 +1662,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,76 +1688,76 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,50 +1831,50 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,20 +1909,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,24 +1987,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -2039,24 +2039,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,20 +2130,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -2169,24 +2169,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,46 +2221,46 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,46 +2273,46 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2338,50 +2338,50 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,24 +2390,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2429,24 +2429,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,20 +2468,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,85 +2533,85 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,20 +2624,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2676,20 +2676,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,111 +2715,111 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,63 +2832,63 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2897,24 +2897,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2923,11 +2923,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,50 +2975,50 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,20 +3079,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,33 +3105,33 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,37 +3157,37 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3196,33 +3196,33 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,37 +3248,37 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,24 +3287,24 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3313,24 +3313,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,24 +3391,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,24 +3482,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,20 +3508,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,11 +3534,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,24 +3612,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,37 +3651,37 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,24 +3716,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,37 +3755,37 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,46 +3794,46 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,33 +3846,33 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,50 +3898,50 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,20 +4002,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,33 +4028,33 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,111 +4067,111 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,24 +4184,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,59 +4262,59 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,24 +4340,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,33 +4457,33 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,11 +4535,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -4548,20 +4548,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,20 +4574,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,11 +4600,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,24 +4626,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,33 +4652,33 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,7 +4691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,11 +4717,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4730,11 +4730,11 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,24 +4756,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,11 +4808,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,37 +4821,37 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,33 +4860,33 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4938,11 +4938,11 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4951,20 +4951,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,20 +4977,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,24 +5003,24 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -5029,24 +5029,24 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,50 +5055,50 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,33 +5120,33 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,11 +5263,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5276,33 +5276,33 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,37 +5341,37 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5380,11 +5380,11 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -5393,20 +5393,20 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,20 +5419,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,20 +5445,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,33 +5497,33 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,20 +5536,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,33 +5562,33 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,46 +5614,46 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,50 +5666,50 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,50 +5744,50 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,20 +5796,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,24 +5822,24 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,24 +5861,24 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,24 +5900,24 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5926,20 +5926,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,46 +5952,46 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,89 +6017,89 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,11 +6121,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -6134,7 +6134,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,59 +6186,59 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,20 +6264,20 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,50 +6290,50 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,46 +6355,46 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,111 +6446,111 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,24 +6563,24 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,24 +6602,24 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,46 +6654,46 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,20 +6732,20 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,24 +6784,24 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,20 +6862,20 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,33 +6888,33 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,37 +6927,37 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -6966,24 +6966,24 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -6992,20 +6992,20 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,46 +7018,46 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,20 +7070,20 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,33 +7096,33 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,89 +7174,89 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,11 +7278,11 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
         <v>1</v>
@@ -7291,11 +7291,11 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,46 +7304,46 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,24 +7382,24 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,24 +7408,24 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>1</v>
@@ -7447,33 +7447,33 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,37 +7512,37 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,24 +7564,24 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>0</v>
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,24 +7668,24 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,33 +7707,33 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,20 +7759,20 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,20 +7785,20 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,11 +7811,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,11 +7876,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>0</v>
@@ -7889,20 +7889,20 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,33 +7928,33 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,11 +7967,11 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -7980,24 +7980,24 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,20 +8019,20 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,11 +8045,11 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,20 +8071,20 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,20 +8097,20 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,102 +8149,102 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,24 +8266,24 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,33 +8305,33 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,37 +8370,37 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,11 +8409,11 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,20 +8422,20 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B615" t="n">
         <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,20 +8526,20 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,11 +8552,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,20 +8591,20 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,20 +8773,20 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,11 +8838,11 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
         <v>0</v>
@@ -8851,20 +8851,20 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,24 +8942,24 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,11 +8981,11 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
         <v>0</v>
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,37 +9020,37 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B662" t="n">
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,59 +9137,59 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,24 +9215,24 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,11 +9280,11 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,20 +9332,20 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,46 +9358,46 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,11 +9423,11 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
         <v>0</v>
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,33 +9449,33 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B695" t="n">
         <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,24 +9501,24 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,11 +9566,11 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -9579,37 +9579,37 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,50 +9644,50 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,59 +9709,59 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B714" t="n">
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,33 +9774,33 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B720" t="n">
         <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,11 +9813,11 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-946177924222222336</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,13 +9943,52 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-732116489394851840</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>t-732306842290946048</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>t-733197295139741697</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+      <c r="C735" t="n">
         <v>1</v>
       </c>
     </row>
